--- a/Code/Results/Cases/Case_6_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_10/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005851815026034</v>
+        <v>1.000640116882904</v>
       </c>
       <c r="D2">
-        <v>1.021881234571469</v>
+        <v>1.018264578143038</v>
       </c>
       <c r="E2">
-        <v>1.019274587576544</v>
+        <v>1.015135973835675</v>
       </c>
       <c r="F2">
-        <v>1.025935473358757</v>
+        <v>1.021881410097475</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044373896109053</v>
+        <v>1.04307891007602</v>
       </c>
       <c r="J2">
-        <v>1.027858897030033</v>
+        <v>1.022801699006364</v>
       </c>
       <c r="K2">
-        <v>1.033043918787752</v>
+        <v>1.029475190214965</v>
       </c>
       <c r="L2">
-        <v>1.030471772066171</v>
+        <v>1.02638839222582</v>
       </c>
       <c r="M2">
-        <v>1.037044934176109</v>
+        <v>1.033044091998061</v>
       </c>
       <c r="N2">
-        <v>1.029318574560886</v>
+        <v>1.024254194735947</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012575737361973</v>
+        <v>1.005264394418219</v>
       </c>
       <c r="D3">
-        <v>1.026902769868341</v>
+        <v>1.021595868743346</v>
       </c>
       <c r="E3">
-        <v>1.025026433952968</v>
+        <v>1.019026424677874</v>
       </c>
       <c r="F3">
-        <v>1.032085082869063</v>
+        <v>1.026191762995117</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046206146409463</v>
+        <v>1.044130654465552</v>
       </c>
       <c r="J3">
-        <v>1.032729348587159</v>
+        <v>1.025612568322493</v>
       </c>
       <c r="K3">
-        <v>1.037202618346601</v>
+        <v>1.031959686444639</v>
       </c>
       <c r="L3">
-        <v>1.035348805781878</v>
+        <v>1.029421511929227</v>
       </c>
       <c r="M3">
-        <v>1.042323250458853</v>
+        <v>1.036500134304853</v>
       </c>
       <c r="N3">
-        <v>1.034195942717865</v>
+        <v>1.027069055808917</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016809221929159</v>
+        <v>1.008196008613041</v>
       </c>
       <c r="D4">
-        <v>1.030066238138547</v>
+        <v>1.0237095633345</v>
       </c>
       <c r="E4">
-        <v>1.028654149088799</v>
+        <v>1.021498837206511</v>
       </c>
       <c r="F4">
-        <v>1.035964144702006</v>
+        <v>1.028930661410661</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047347831867333</v>
+        <v>1.044786920863856</v>
       </c>
       <c r="J4">
-        <v>1.035792505207955</v>
+        <v>1.027392358135645</v>
       </c>
       <c r="K4">
-        <v>1.039814842784872</v>
+        <v>1.033530014537489</v>
       </c>
       <c r="L4">
-        <v>1.038418619420504</v>
+        <v>1.03134453382331</v>
       </c>
       <c r="M4">
-        <v>1.045647057711317</v>
+        <v>1.038692020733929</v>
       </c>
       <c r="N4">
-        <v>1.037263449372411</v>
+        <v>1.028851373127748</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0185623051352</v>
+        <v>1.00941447354393</v>
       </c>
       <c r="D5">
-        <v>1.031376566808839</v>
+        <v>1.024588443035687</v>
       </c>
       <c r="E5">
-        <v>1.030157808018645</v>
+        <v>1.02252784340289</v>
       </c>
       <c r="F5">
-        <v>1.03757210483707</v>
+        <v>1.03007049784859</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04781768161668</v>
+        <v>1.045057122398768</v>
       </c>
       <c r="J5">
-        <v>1.03706009022165</v>
+        <v>1.028131527777167</v>
       </c>
       <c r="K5">
-        <v>1.040895008937564</v>
+        <v>1.03418150056749</v>
       </c>
       <c r="L5">
-        <v>1.039689557874157</v>
+        <v>1.032143792267313</v>
       </c>
       <c r="M5">
-        <v>1.04702348987709</v>
+        <v>1.039603202535148</v>
       </c>
       <c r="N5">
-        <v>1.03853283450222</v>
+        <v>1.029591592474946</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018855130655971</v>
+        <v>1.0096182537514</v>
       </c>
       <c r="D6">
-        <v>1.031595454081214</v>
+        <v>1.024735449619188</v>
       </c>
       <c r="E6">
-        <v>1.030409052631874</v>
+        <v>1.022700018864728</v>
       </c>
       <c r="F6">
-        <v>1.037840784239762</v>
+        <v>1.030261213181929</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047895989288096</v>
+        <v>1.04510215998037</v>
       </c>
       <c r="J6">
-        <v>1.037271768099155</v>
+        <v>1.028255114848409</v>
       </c>
       <c r="K6">
-        <v>1.041075340469946</v>
+        <v>1.034290386026983</v>
       </c>
       <c r="L6">
-        <v>1.039901830817547</v>
+        <v>1.032277461484623</v>
       </c>
       <c r="M6">
-        <v>1.04725340227358</v>
+        <v>1.039755600388843</v>
       </c>
       <c r="N6">
-        <v>1.03874481298659</v>
+        <v>1.029715355054004</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016832749723802</v>
+        <v>1.00821234408192</v>
       </c>
       <c r="D7">
-        <v>1.030083822599583</v>
+        <v>1.023721344754705</v>
       </c>
       <c r="E7">
-        <v>1.028674323873319</v>
+        <v>1.021512627209727</v>
       </c>
       <c r="F7">
-        <v>1.035985718427026</v>
+        <v>1.028945936986727</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047354149264536</v>
+        <v>1.04479055352351</v>
       </c>
       <c r="J7">
-        <v>1.035809520729001</v>
+        <v>1.027402270158479</v>
       </c>
       <c r="K7">
-        <v>1.039829345735718</v>
+        <v>1.033538753507179</v>
       </c>
       <c r="L7">
-        <v>1.038435677594435</v>
+        <v>1.031355249234242</v>
       </c>
       <c r="M7">
-        <v>1.0456655304577</v>
+        <v>1.038704235968754</v>
       </c>
       <c r="N7">
-        <v>1.037280489057448</v>
+        <v>1.028861299226792</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008149380888449</v>
+        <v>1.00221578450744</v>
       </c>
       <c r="D8">
-        <v>1.023596644211619</v>
+        <v>1.019399263140098</v>
       </c>
       <c r="E8">
-        <v>1.021238625173408</v>
+        <v>1.016460309429587</v>
       </c>
       <c r="F8">
-        <v>1.028035235566674</v>
+        <v>1.023348764402509</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045002451700699</v>
+        <v>1.043439454389763</v>
       </c>
       <c r="J8">
-        <v>1.029523799345538</v>
+        <v>1.023759906236371</v>
       </c>
       <c r="K8">
-        <v>1.034466195708814</v>
+        <v>1.03032271747299</v>
       </c>
       <c r="L8">
-        <v>1.032138390194055</v>
+        <v>1.027421837579085</v>
       </c>
       <c r="M8">
-        <v>1.038848384275273</v>
+        <v>1.034221483823269</v>
       </c>
       <c r="N8">
-        <v>1.030985841228639</v>
+        <v>1.025213762730129</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9918796864301355</v>
+        <v>0.9911600467229906</v>
       </c>
       <c r="D9">
-        <v>1.011461801928396</v>
+        <v>1.011447928823165</v>
       </c>
       <c r="E9">
-        <v>1.007361267483574</v>
+        <v>1.007195519444106</v>
       </c>
       <c r="F9">
-        <v>1.013200668681342</v>
+        <v>1.013081573915169</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040502783466644</v>
+        <v>1.040866928802867</v>
       </c>
       <c r="J9">
-        <v>1.017722489008606</v>
+        <v>1.017028875423017</v>
       </c>
       <c r="K9">
-        <v>1.024371616770222</v>
+        <v>1.024357962268206</v>
       </c>
       <c r="L9">
-        <v>1.020336031685891</v>
+        <v>1.020172923220416</v>
       </c>
       <c r="M9">
-        <v>1.026083144260643</v>
+        <v>1.025965918127326</v>
       </c>
       <c r="N9">
-        <v>1.019167771677399</v>
+        <v>1.01847317308096</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9802737627583994</v>
+        <v>0.9834236503050493</v>
       </c>
       <c r="D10">
-        <v>1.002826988184678</v>
+        <v>1.005899969451157</v>
       </c>
       <c r="E10">
-        <v>0.9975054343052397</v>
+        <v>1.000749564838744</v>
       </c>
       <c r="F10">
-        <v>1.002666994286992</v>
+        <v>1.005935454143943</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037233785768099</v>
+        <v>1.039014449681225</v>
       </c>
       <c r="J10">
-        <v>1.009292495059738</v>
+        <v>1.012310737513995</v>
       </c>
       <c r="K10">
-        <v>1.017145387395273</v>
+        <v>1.02016350900589</v>
       </c>
       <c r="L10">
-        <v>1.011919875451805</v>
+        <v>1.015105298836509</v>
       </c>
       <c r="M10">
-        <v>1.016988261713718</v>
+        <v>1.020198362757229</v>
       </c>
       <c r="N10">
-        <v>1.010725806170189</v>
+        <v>1.013748334874929</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9750402942136628</v>
+        <v>0.9799779079820119</v>
       </c>
       <c r="D11">
-        <v>0.9989403960490058</v>
+        <v>1.003433810648908</v>
       </c>
       <c r="E11">
-        <v>0.993073083095796</v>
+        <v>0.9978881935164374</v>
       </c>
       <c r="F11">
-        <v>0.9979301713521781</v>
+        <v>1.002762500263728</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035746716393443</v>
+        <v>1.038177623402565</v>
       </c>
       <c r="J11">
-        <v>1.005489596040118</v>
+        <v>1.010208020556038</v>
       </c>
       <c r="K11">
-        <v>1.013882322651447</v>
+        <v>1.018291259568514</v>
       </c>
       <c r="L11">
-        <v>1.008126823981748</v>
+        <v>1.012850045605495</v>
       </c>
       <c r="M11">
-        <v>1.012891227457775</v>
+        <v>1.017632507240016</v>
       </c>
       <c r="N11">
-        <v>1.006917506597763</v>
+        <v>1.011642631817707</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.973062396694203</v>
+        <v>0.9786827769009284</v>
       </c>
       <c r="D12">
-        <v>0.9974727838693633</v>
+        <v>1.00250769539047</v>
       </c>
       <c r="E12">
-        <v>0.991399901921145</v>
+        <v>0.9968142228291897</v>
       </c>
       <c r="F12">
-        <v>0.9961420997657424</v>
+        <v>1.001571453898581</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035182855356427</v>
+        <v>1.037861385324051</v>
       </c>
       <c r="J12">
-        <v>1.004052236467166</v>
+        <v>1.009417545921111</v>
       </c>
       <c r="K12">
-        <v>1.01264856204421</v>
+        <v>1.017587009098633</v>
       </c>
       <c r="L12">
-        <v>1.006693742039169</v>
+        <v>1.012002712875791</v>
       </c>
       <c r="M12">
-        <v>1.011343586176153</v>
+        <v>1.016668609132557</v>
       </c>
       <c r="N12">
-        <v>1.005478105809351</v>
+        <v>1.010851034618129</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9734882457520405</v>
+        <v>0.9789612900703805</v>
       </c>
       <c r="D13">
-        <v>0.9977887065394436</v>
+        <v>1.002706814207939</v>
       </c>
       <c r="E13">
-        <v>0.9917600537990562</v>
+        <v>0.9970451065733792</v>
       </c>
       <c r="F13">
-        <v>0.9965269798839972</v>
+        <v>1.001827512710371</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035304338615093</v>
+        <v>1.037929467213367</v>
       </c>
       <c r="J13">
-        <v>1.00436170911404</v>
+        <v>1.00958753993579</v>
       </c>
       <c r="K13">
-        <v>1.012914217649133</v>
+        <v>1.017738478728754</v>
       </c>
       <c r="L13">
-        <v>1.00700226836049</v>
+        <v>1.012184912465954</v>
       </c>
       <c r="M13">
-        <v>1.011676762634522</v>
+        <v>1.016875867473722</v>
       </c>
       <c r="N13">
-        <v>1.00578801794288</v>
+        <v>1.011021270043808</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9748775099843062</v>
+        <v>0.9798711677296872</v>
       </c>
       <c r="D14">
-        <v>0.9988195824944347</v>
+        <v>1.0033574660753</v>
       </c>
       <c r="E14">
-        <v>0.9929353370667663</v>
+        <v>0.9977996492995231</v>
       </c>
       <c r="F14">
-        <v>0.997782966007959</v>
+        <v>1.002664306336132</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035700346609192</v>
+        <v>1.038151594450911</v>
       </c>
       <c r="J14">
-        <v>1.005371300735793</v>
+        <v>1.010142874846256</v>
       </c>
       <c r="K14">
-        <v>1.013780792282011</v>
+        <v>1.018233228193435</v>
       </c>
       <c r="L14">
-        <v>1.008008869369573</v>
+        <v>1.0127802041621</v>
       </c>
       <c r="M14">
-        <v>1.012763837732445</v>
+        <v>1.017553055199333</v>
       </c>
       <c r="N14">
-        <v>1.006799043300537</v>
+        <v>1.011577393593544</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.975728896128409</v>
+        <v>0.9804297295147486</v>
       </c>
       <c r="D15">
-        <v>0.9994515079464232</v>
+        <v>1.003757004325976</v>
       </c>
       <c r="E15">
-        <v>0.9936558498069769</v>
+        <v>0.9982630551650116</v>
       </c>
       <c r="F15">
-        <v>0.9985529596964864</v>
+        <v>1.003178209729637</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035942793011037</v>
+        <v>1.038287732390867</v>
       </c>
       <c r="J15">
-        <v>1.005989998863565</v>
+        <v>1.010483770950769</v>
       </c>
       <c r="K15">
-        <v>1.014311790265125</v>
+        <v>1.018536879435041</v>
       </c>
       <c r="L15">
-        <v>1.008625808319669</v>
+        <v>1.013145691990615</v>
       </c>
       <c r="M15">
-        <v>1.013430137078784</v>
+        <v>1.017968841722892</v>
       </c>
       <c r="N15">
-        <v>1.007418620050616</v>
+        <v>1.011918773809628</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.980616484453271</v>
+        <v>0.9836502442085264</v>
       </c>
       <c r="D16">
-        <v>1.0030816704629</v>
+        <v>1.006062254650297</v>
       </c>
       <c r="E16">
-        <v>0.9977959537533738</v>
+        <v>1.000937936461203</v>
       </c>
       <c r="F16">
-        <v>1.002977477213655</v>
+        <v>1.006144320904624</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037330908066704</v>
+        <v>1.039069240137923</v>
       </c>
       <c r="J16">
-        <v>1.00954151074229</v>
+        <v>1.012448991070501</v>
       </c>
       <c r="K16">
-        <v>1.017358991563799</v>
+        <v>1.020286550441253</v>
       </c>
       <c r="L16">
-        <v>1.012168322157291</v>
+        <v>1.015253648783937</v>
       </c>
       <c r="M16">
-        <v>1.017256659340251</v>
+        <v>1.020367162482347</v>
       </c>
       <c r="N16">
-        <v>1.010975175483574</v>
+        <v>1.013886784767343</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9836248336338973</v>
+        <v>0.9856441627901725</v>
       </c>
       <c r="D17">
-        <v>1.005318050436967</v>
+        <v>1.007490852203146</v>
       </c>
       <c r="E17">
-        <v>1.000347448643422</v>
+        <v>1.002596619915059</v>
       </c>
       <c r="F17">
-        <v>1.005704342253287</v>
+        <v>1.007983381791731</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038181974145218</v>
+        <v>1.0395500404876</v>
       </c>
       <c r="J17">
-        <v>1.011727162153271</v>
+        <v>1.013665416436095</v>
       </c>
       <c r="K17">
-        <v>1.019233473083262</v>
+        <v>1.021368802184841</v>
       </c>
       <c r="L17">
-        <v>1.014349388567857</v>
+        <v>1.016559273642978</v>
       </c>
       <c r="M17">
-        <v>1.019613087509557</v>
+        <v>1.021852866523105</v>
       </c>
       <c r="N17">
-        <v>1.013163930770256</v>
+        <v>1.015104937596483</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9853596793409984</v>
+        <v>0.9867979946345492</v>
       </c>
       <c r="D18">
-        <v>1.006608375756098</v>
+        <v>1.008318001962816</v>
       </c>
       <c r="E18">
-        <v>1.001819951286746</v>
+        <v>1.003557366812418</v>
       </c>
       <c r="F18">
-        <v>1.007278088586222</v>
+        <v>1.009048534179743</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038671535436261</v>
+        <v>1.03982714969733</v>
       </c>
       <c r="J18">
-        <v>1.012987422703485</v>
+        <v>1.014369206063241</v>
       </c>
       <c r="K18">
-        <v>1.020314006723511</v>
+        <v>1.021994684080227</v>
       </c>
       <c r="L18">
-        <v>1.015607343774287</v>
+        <v>1.017314976702448</v>
       </c>
       <c r="M18">
-        <v>1.020972364294646</v>
+        <v>1.022712884889486</v>
       </c>
       <c r="N18">
-        <v>1.014425981035005</v>
+        <v>1.015809726685625</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9859479230315992</v>
+        <v>0.9871898874533972</v>
       </c>
       <c r="D19">
-        <v>1.00704599952467</v>
+        <v>1.008599013465275</v>
       </c>
       <c r="E19">
-        <v>1.0023194255934</v>
+        <v>1.003883831215351</v>
       </c>
       <c r="F19">
-        <v>1.00781191108679</v>
+        <v>1.009410463763607</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03883732238263</v>
+        <v>1.039921076959638</v>
       </c>
       <c r="J19">
-        <v>1.013414716846283</v>
+        <v>1.014608221494928</v>
       </c>
       <c r="K19">
-        <v>1.020680311237293</v>
+        <v>1.022207193161016</v>
       </c>
       <c r="L19">
-        <v>1.016033913301183</v>
+        <v>1.017571674280348</v>
       </c>
       <c r="M19">
-        <v>1.021433322095802</v>
+        <v>1.023005030698603</v>
       </c>
       <c r="N19">
-        <v>1.014853881984497</v>
+        <v>1.016049081546641</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833041403700706</v>
+        <v>0.9854311902819788</v>
       </c>
       <c r="D20">
-        <v>1.005079580442156</v>
+        <v>1.007338214321129</v>
       </c>
       <c r="E20">
-        <v>1.00007533974156</v>
+        <v>1.002419359576859</v>
       </c>
       <c r="F20">
-        <v>1.005413527088742</v>
+        <v>1.007786852530292</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038091376571611</v>
+        <v>1.039498801302579</v>
       </c>
       <c r="J20">
-        <v>1.011494184622415</v>
+        <v>1.013535501467729</v>
       </c>
       <c r="K20">
-        <v>1.019033695759587</v>
+        <v>1.021253245787885</v>
       </c>
       <c r="L20">
-        <v>1.014116864520218</v>
+        <v>1.01641980044866</v>
       </c>
       <c r="M20">
-        <v>1.019361849411708</v>
+        <v>1.021694147640852</v>
       </c>
       <c r="N20">
-        <v>1.012930622384584</v>
+        <v>1.01497483813396</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9744693668721572</v>
+        <v>0.9796036588113116</v>
       </c>
       <c r="D21">
-        <v>0.9985166918568431</v>
+        <v>1.003166147435526</v>
       </c>
       <c r="E21">
-        <v>0.9925900032287966</v>
+        <v>0.9975777673630235</v>
       </c>
       <c r="F21">
-        <v>0.9974139180536152</v>
+        <v>1.002418241197852</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035584055907399</v>
+        <v>1.038086334287236</v>
       </c>
       <c r="J21">
-        <v>1.005074701586251</v>
+        <v>1.009979606763482</v>
       </c>
       <c r="K21">
-        <v>1.013526220562406</v>
+        <v>1.018087783433884</v>
       </c>
       <c r="L21">
-        <v>1.007713133417746</v>
+        <v>1.012605175454429</v>
       </c>
       <c r="M21">
-        <v>1.012444450743993</v>
+        <v>1.017353943635251</v>
       </c>
       <c r="N21">
-        <v>1.006502022946184</v>
+        <v>1.011413893651366</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9687165669972116</v>
+        <v>0.9758510916356137</v>
       </c>
       <c r="D22">
-        <v>0.9942506936865827</v>
+        <v>1.000484455448102</v>
       </c>
       <c r="E22">
-        <v>0.9877273687446692</v>
+        <v>0.9944689552538103</v>
       </c>
       <c r="F22">
-        <v>0.9922174617422965</v>
+        <v>0.9989702759482821</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033940651472377</v>
+        <v>1.037166892028914</v>
       </c>
       <c r="J22">
-        <v>1.000893987291585</v>
+        <v>1.007689053571818</v>
       </c>
       <c r="K22">
-        <v>1.009936912373222</v>
+        <v>1.016046321286692</v>
       </c>
       <c r="L22">
-        <v>1.003545933348662</v>
+        <v>1.010150785333062</v>
       </c>
       <c r="M22">
-        <v>1.007944685010372</v>
+        <v>1.014562159510235</v>
       </c>
       <c r="N22">
-        <v>1.002315371557684</v>
+        <v>1.00912008761144</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9717859929170877</v>
+        <v>0.9778490873010859</v>
       </c>
       <c r="D23">
-        <v>0.9965260638830388</v>
+        <v>1.001911789974425</v>
       </c>
       <c r="E23">
-        <v>0.9903207114860261</v>
+        <v>0.9961233330677524</v>
       </c>
       <c r="F23">
-        <v>0.9949888173821037</v>
+        <v>1.000805211349663</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034818468921063</v>
+        <v>1.037657346701919</v>
       </c>
       <c r="J23">
-        <v>1.003124641077253</v>
+        <v>1.00890867703853</v>
       </c>
       <c r="K23">
-        <v>1.01185224039044</v>
+        <v>1.01713353301803</v>
       </c>
       <c r="L23">
-        <v>1.005769065728368</v>
+        <v>1.011457378379692</v>
       </c>
       <c r="M23">
-        <v>1.010345074512517</v>
+        <v>1.016048291627116</v>
       </c>
       <c r="N23">
-        <v>1.004549193127587</v>
+        <v>1.010341443083367</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9834491090668013</v>
+        <v>0.985527451721381</v>
       </c>
       <c r="D24">
-        <v>1.005187378263373</v>
+        <v>1.00740720370938</v>
       </c>
       <c r="E24">
-        <v>1.000198342533814</v>
+        <v>1.002499476665161</v>
       </c>
       <c r="F24">
-        <v>1.005544985659635</v>
+        <v>1.007875678899535</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038132334832307</v>
+        <v>1.039521964372231</v>
       </c>
       <c r="J24">
-        <v>1.01159950209911</v>
+        <v>1.013594222126105</v>
       </c>
       <c r="K24">
-        <v>1.019124006033181</v>
+        <v>1.021305477338037</v>
       </c>
       <c r="L24">
-        <v>1.014221975950066</v>
+        <v>1.016482840412421</v>
       </c>
       <c r="M24">
-        <v>1.019475419884604</v>
+        <v>1.021765886128689</v>
       </c>
       <c r="N24">
-        <v>1.013036089424175</v>
+        <v>1.015033642182406</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9962110413733904</v>
+        <v>0.9940798421668041</v>
       </c>
       <c r="D25">
-        <v>1.014689296469977</v>
+        <v>1.01354541638709</v>
       </c>
       <c r="E25">
-        <v>1.011048785773354</v>
+        <v>1.00963616661036</v>
       </c>
       <c r="F25">
-        <v>1.017142168275511</v>
+        <v>1.015786720600789</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041711119904912</v>
+        <v>1.041555554611956</v>
       </c>
       <c r="J25">
-        <v>1.020866595390247</v>
+        <v>1.018808099125863</v>
       </c>
       <c r="K25">
-        <v>1.027063780705143</v>
+        <v>1.025937034287843</v>
       </c>
       <c r="L25">
-        <v>1.023477971068652</v>
+        <v>1.022086712781526</v>
       </c>
       <c r="M25">
-        <v>1.029480077228177</v>
+        <v>1.028144813144151</v>
       </c>
       <c r="N25">
-        <v>1.022316343050736</v>
+        <v>1.020254923485544</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000640116882904</v>
+        <v>0.9999999640438142</v>
       </c>
       <c r="D2">
-        <v>1.018264578143038</v>
+        <v>1.020107911139852</v>
       </c>
       <c r="E2">
-        <v>1.015135973835675</v>
+        <v>1.014695545518621</v>
       </c>
       <c r="F2">
-        <v>1.021881410097475</v>
+        <v>1.021544772014046</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04307891007602</v>
+        <v>1.043855616152071</v>
       </c>
       <c r="J2">
-        <v>1.022801699006364</v>
+        <v>1.022180676186711</v>
       </c>
       <c r="K2">
-        <v>1.029475190214965</v>
+        <v>1.031294042119209</v>
       </c>
       <c r="L2">
-        <v>1.02638839222582</v>
+        <v>1.025953875192922</v>
       </c>
       <c r="M2">
-        <v>1.033044091998061</v>
+        <v>1.032711897067396</v>
       </c>
       <c r="N2">
-        <v>1.024254194735947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011296038443644</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033197795825634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005264394418219</v>
+        <v>1.003675806599284</v>
       </c>
       <c r="D3">
-        <v>1.021595868743346</v>
+        <v>1.022446817465635</v>
       </c>
       <c r="E3">
-        <v>1.019026424677874</v>
+        <v>1.017753919950107</v>
       </c>
       <c r="F3">
-        <v>1.026191762995117</v>
+        <v>1.025022971669819</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044130654465552</v>
+        <v>1.044475000463007</v>
       </c>
       <c r="J3">
-        <v>1.025612568322493</v>
+        <v>1.024066764539175</v>
       </c>
       <c r="K3">
-        <v>1.031959686444639</v>
+        <v>1.032800322341805</v>
       </c>
       <c r="L3">
-        <v>1.029421511929227</v>
+        <v>1.028164565986357</v>
       </c>
       <c r="M3">
-        <v>1.036500134304853</v>
+        <v>1.035345385154224</v>
       </c>
       <c r="N3">
-        <v>1.027069055808917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011934253116452</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.034260197836784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008196008613041</v>
+        <v>1.00601481947983</v>
       </c>
       <c r="D4">
-        <v>1.0237095633345</v>
+        <v>1.023938486342544</v>
       </c>
       <c r="E4">
-        <v>1.021498837206511</v>
+        <v>1.019705805254932</v>
       </c>
       <c r="F4">
-        <v>1.028930661410661</v>
+        <v>1.027241867569865</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044786920863856</v>
+        <v>1.044859921066512</v>
       </c>
       <c r="J4">
-        <v>1.027392358135645</v>
+        <v>1.025265907025585</v>
       </c>
       <c r="K4">
-        <v>1.033530014537489</v>
+        <v>1.033756331038743</v>
       </c>
       <c r="L4">
-        <v>1.03134453382331</v>
+        <v>1.029572076681943</v>
       </c>
       <c r="M4">
-        <v>1.038692020733929</v>
+        <v>1.037022259506655</v>
       </c>
       <c r="N4">
-        <v>1.028851373127748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012339914350279</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03493708928878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00941447354393</v>
+        <v>1.00699161021761</v>
       </c>
       <c r="D5">
-        <v>1.024588443035687</v>
+        <v>1.024564268943085</v>
       </c>
       <c r="E5">
-        <v>1.02252784340289</v>
+        <v>1.020522478014069</v>
       </c>
       <c r="F5">
-        <v>1.03007049784859</v>
+        <v>1.028169715591414</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045057122398768</v>
+        <v>1.045019701335216</v>
       </c>
       <c r="J5">
-        <v>1.028131527777167</v>
+        <v>1.025767637239397</v>
       </c>
       <c r="K5">
-        <v>1.03418150056749</v>
+        <v>1.034157594370051</v>
       </c>
       <c r="L5">
-        <v>1.032143792267313</v>
+        <v>1.03016081386174</v>
       </c>
       <c r="M5">
-        <v>1.039603202535148</v>
+        <v>1.03772325676016</v>
       </c>
       <c r="N5">
-        <v>1.029591592474946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012509837511915</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035228036818079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0096182537514</v>
+        <v>1.007158308109579</v>
       </c>
       <c r="D6">
-        <v>1.024735449619188</v>
+        <v>1.024673634551231</v>
       </c>
       <c r="E6">
-        <v>1.022700018864728</v>
+        <v>1.020662161400093</v>
       </c>
       <c r="F6">
-        <v>1.030261213181929</v>
+        <v>1.028328004317157</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04510215998037</v>
+        <v>1.04504839304258</v>
       </c>
       <c r="J6">
-        <v>1.028255114848409</v>
+        <v>1.025854734712531</v>
       </c>
       <c r="K6">
-        <v>1.034290386026983</v>
+        <v>1.034229252843988</v>
       </c>
       <c r="L6">
-        <v>1.032277461484623</v>
+        <v>1.030262247694536</v>
       </c>
       <c r="M6">
-        <v>1.039755600388843</v>
+        <v>1.037843484018036</v>
       </c>
       <c r="N6">
-        <v>1.029715355054004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012539599971318</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.035287506659252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00821234408192</v>
+        <v>1.006036559521734</v>
       </c>
       <c r="D7">
-        <v>1.023721344754705</v>
+        <v>1.023959164836393</v>
       </c>
       <c r="E7">
-        <v>1.021512627209727</v>
+        <v>1.019724603373491</v>
       </c>
       <c r="F7">
-        <v>1.028945936986727</v>
+        <v>1.027262154849482</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04479055352351</v>
+        <v>1.044867656777278</v>
       </c>
       <c r="J7">
-        <v>1.027402270158479</v>
+        <v>1.02528106525437</v>
       </c>
       <c r="K7">
-        <v>1.033538753507179</v>
+        <v>1.033773866790621</v>
       </c>
       <c r="L7">
-        <v>1.031355249234242</v>
+        <v>1.029587735073676</v>
       </c>
       <c r="M7">
-        <v>1.038704235968754</v>
+        <v>1.037039422824424</v>
       </c>
       <c r="N7">
-        <v>1.028861299226792</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012345774034897</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034969731224847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00221578450744</v>
+        <v>1.001261358278337</v>
       </c>
       <c r="D8">
-        <v>1.019399263140098</v>
+        <v>1.020918114212838</v>
       </c>
       <c r="E8">
-        <v>1.016460309429587</v>
+        <v>1.015744659638465</v>
       </c>
       <c r="F8">
-        <v>1.023348764402509</v>
+        <v>1.022736740864963</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043439454389763</v>
+        <v>1.044075167980168</v>
       </c>
       <c r="J8">
-        <v>1.023759906236371</v>
+        <v>1.022833034379358</v>
       </c>
       <c r="K8">
-        <v>1.03032271747299</v>
+        <v>1.03182199944403</v>
       </c>
       <c r="L8">
-        <v>1.027421837579085</v>
+        <v>1.026715500721751</v>
       </c>
       <c r="M8">
-        <v>1.034221483823269</v>
+        <v>1.033617290214245</v>
       </c>
       <c r="N8">
-        <v>1.025213762730129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011517755594822</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.033594178190861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9911600467229906</v>
+        <v>0.9925172747675853</v>
       </c>
       <c r="D9">
-        <v>1.011447928823165</v>
+        <v>1.01536749558397</v>
       </c>
       <c r="E9">
-        <v>1.007195519444106</v>
+        <v>1.008502916939358</v>
       </c>
       <c r="F9">
-        <v>1.013081573915169</v>
+        <v>1.014496609317912</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040866928802867</v>
+        <v>1.042546171268069</v>
       </c>
       <c r="J9">
-        <v>1.017028875423017</v>
+        <v>1.018337062873346</v>
       </c>
       <c r="K9">
-        <v>1.024357962268206</v>
+        <v>1.028216070854306</v>
       </c>
       <c r="L9">
-        <v>1.020172923220416</v>
+        <v>1.021459530317056</v>
       </c>
       <c r="M9">
-        <v>1.025965918127326</v>
+        <v>1.027358787468184</v>
       </c>
       <c r="N9">
-        <v>1.01847317308096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009995078269103</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031041313006472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9834236503050493</v>
+        <v>0.9864590697078723</v>
       </c>
       <c r="D10">
-        <v>1.005899969451157</v>
+        <v>1.011546471504341</v>
       </c>
       <c r="E10">
-        <v>1.000749564838744</v>
+        <v>1.003519984150094</v>
       </c>
       <c r="F10">
-        <v>1.005935454143943</v>
+        <v>1.008820642512491</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039014449681225</v>
+        <v>1.041442240258183</v>
       </c>
       <c r="J10">
-        <v>1.012310737513995</v>
+        <v>1.015220425824066</v>
       </c>
       <c r="K10">
-        <v>1.02016350900589</v>
+        <v>1.025710334049802</v>
       </c>
       <c r="L10">
-        <v>1.015105298836509</v>
+        <v>1.017825973712252</v>
       </c>
       <c r="M10">
-        <v>1.020198362757229</v>
+        <v>1.02303244314276</v>
       </c>
       <c r="N10">
-        <v>1.013748334874929</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008939540492104</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029286519523331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9799779079820119</v>
+        <v>0.9837872156197069</v>
       </c>
       <c r="D11">
-        <v>1.003433810648908</v>
+        <v>1.009875265593646</v>
       </c>
       <c r="E11">
-        <v>0.9978881935164374</v>
+        <v>1.001331970533554</v>
       </c>
       <c r="F11">
-        <v>1.002762500263728</v>
+        <v>1.006325422964492</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038177623402565</v>
+        <v>1.040949815861369</v>
       </c>
       <c r="J11">
-        <v>1.010208020556038</v>
+        <v>1.013850373003061</v>
       </c>
       <c r="K11">
-        <v>1.018291259568514</v>
+        <v>1.024613321235415</v>
       </c>
       <c r="L11">
-        <v>1.012850045605495</v>
+        <v>1.016228811480782</v>
       </c>
       <c r="M11">
-        <v>1.017632507240016</v>
+        <v>1.021129028881156</v>
       </c>
       <c r="N11">
-        <v>1.011642631817707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008476619440396</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.028543993373826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9786827769009284</v>
+        <v>0.982779404130383</v>
       </c>
       <c r="D12">
-        <v>1.00250769539047</v>
+        <v>1.009241360717991</v>
       </c>
       <c r="E12">
-        <v>0.9968142228291897</v>
+        <v>1.000507440234994</v>
       </c>
       <c r="F12">
-        <v>1.001571453898581</v>
+        <v>1.005385686690521</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037861385324051</v>
+        <v>1.040759864839882</v>
       </c>
       <c r="J12">
-        <v>1.009417545921111</v>
+        <v>1.013330884385129</v>
       </c>
       <c r="K12">
-        <v>1.017587009098633</v>
+        <v>1.024193626958024</v>
       </c>
       <c r="L12">
-        <v>1.012002712875791</v>
+        <v>1.015624924943887</v>
       </c>
       <c r="M12">
-        <v>1.016668609132557</v>
+        <v>1.020410427741805</v>
       </c>
       <c r="N12">
-        <v>1.010851034618129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008300483065714</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028247251011601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9789612900703805</v>
+        <v>0.9829948237247585</v>
       </c>
       <c r="D13">
-        <v>1.002706814207939</v>
+        <v>1.009375939851133</v>
       </c>
       <c r="E13">
-        <v>0.9970451065733792</v>
+        <v>1.000683509691544</v>
       </c>
       <c r="F13">
-        <v>1.001827512710371</v>
+        <v>1.005586523596013</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037929467213367</v>
+        <v>1.040800012964533</v>
       </c>
       <c r="J13">
-        <v>1.00958753993579</v>
+        <v>1.013441400977069</v>
       </c>
       <c r="K13">
-        <v>1.017738478728754</v>
+        <v>1.02428225117926</v>
       </c>
       <c r="L13">
-        <v>1.012184912465954</v>
+        <v>1.015753636499237</v>
       </c>
       <c r="M13">
-        <v>1.016875867473722</v>
+        <v>1.020563794528868</v>
       </c>
       <c r="N13">
-        <v>1.011021270043808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008337834026047</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.028307396936706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9798711677296872</v>
+        <v>0.9837035952509622</v>
       </c>
       <c r="D14">
-        <v>1.0033574660753</v>
+        <v>1.009822275496986</v>
       </c>
       <c r="E14">
-        <v>0.9977996492995231</v>
+        <v>1.001263481892918</v>
       </c>
       <c r="F14">
-        <v>1.002664306336132</v>
+        <v>1.006247436125465</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038151594450911</v>
+        <v>1.040933862835779</v>
       </c>
       <c r="J14">
-        <v>1.010142874846256</v>
+        <v>1.013807045962816</v>
       </c>
       <c r="K14">
-        <v>1.018233228193435</v>
+        <v>1.024578034338885</v>
       </c>
       <c r="L14">
-        <v>1.0127802041621</v>
+        <v>1.016178547704324</v>
       </c>
       <c r="M14">
-        <v>1.017553055199333</v>
+        <v>1.021069304477918</v>
       </c>
       <c r="N14">
-        <v>1.011577393593544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008461877866443</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.028517966458295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9804297295147486</v>
+        <v>0.9841413980849396</v>
       </c>
       <c r="D15">
-        <v>1.003757004325976</v>
+        <v>1.01009984167611</v>
       </c>
       <c r="E15">
-        <v>0.9982630551650116</v>
+        <v>1.001622127469957</v>
       </c>
       <c r="F15">
-        <v>1.003178209729637</v>
+        <v>1.006655794515472</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038287732390867</v>
+        <v>1.041017378728578</v>
       </c>
       <c r="J15">
-        <v>1.010483770950769</v>
+        <v>1.014033942762819</v>
       </c>
       <c r="K15">
-        <v>1.018536879435041</v>
+        <v>1.024762886861207</v>
       </c>
       <c r="L15">
-        <v>1.013145691990615</v>
+        <v>1.016441759664015</v>
       </c>
       <c r="M15">
-        <v>1.017968841722892</v>
+        <v>1.021382038206371</v>
       </c>
       <c r="N15">
-        <v>1.011918773809628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008539088762717</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.028654589906701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9836502442085264</v>
+        <v>0.9866554394662936</v>
       </c>
       <c r="D16">
-        <v>1.006062254650297</v>
+        <v>1.011684585503817</v>
       </c>
       <c r="E16">
-        <v>1.000937936461203</v>
+        <v>1.003682874855819</v>
       </c>
       <c r="F16">
-        <v>1.006144320904624</v>
+        <v>1.009003705013034</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039069240137923</v>
+        <v>1.041487273762871</v>
       </c>
       <c r="J16">
-        <v>1.012448991070501</v>
+        <v>1.015330183121044</v>
       </c>
       <c r="K16">
-        <v>1.020286550441253</v>
+        <v>1.025809960268901</v>
       </c>
       <c r="L16">
-        <v>1.015253648783937</v>
+        <v>1.017949467469114</v>
       </c>
       <c r="M16">
-        <v>1.020367162482347</v>
+        <v>1.023176069787638</v>
       </c>
       <c r="N16">
-        <v>1.013886784767343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008978662073873</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.029398115467279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9856441627901725</v>
+        <v>0.9882160708860642</v>
       </c>
       <c r="D17">
-        <v>1.007490852203146</v>
+        <v>1.01266992175043</v>
       </c>
       <c r="E17">
-        <v>1.002596619915059</v>
+        <v>1.004964420230272</v>
       </c>
       <c r="F17">
-        <v>1.007983381791731</v>
+        <v>1.010463450867453</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0395500404876</v>
+        <v>1.041776209881135</v>
       </c>
       <c r="J17">
-        <v>1.013665416436095</v>
+        <v>1.01613474307641</v>
       </c>
       <c r="K17">
-        <v>1.021368802184841</v>
+        <v>1.026459389329281</v>
       </c>
       <c r="L17">
-        <v>1.016559273642978</v>
+        <v>1.018885961505217</v>
       </c>
       <c r="M17">
-        <v>1.021852866523105</v>
+        <v>1.024290471902685</v>
       </c>
       <c r="N17">
-        <v>1.015104937596483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009251478805022</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029859902820916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9867979946345492</v>
+        <v>0.9891143499909664</v>
       </c>
       <c r="D18">
-        <v>1.008318001962816</v>
+        <v>1.01323295829824</v>
       </c>
       <c r="E18">
-        <v>1.003557366812418</v>
+        <v>1.005702307391704</v>
       </c>
       <c r="F18">
-        <v>1.009048534179743</v>
+        <v>1.011304618890198</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03982714969733</v>
+        <v>1.04193871986125</v>
       </c>
       <c r="J18">
-        <v>1.014369206063241</v>
+        <v>1.016595007078972</v>
       </c>
       <c r="K18">
-        <v>1.021994684080227</v>
+        <v>1.026827117222718</v>
       </c>
       <c r="L18">
-        <v>1.017314976702448</v>
+        <v>1.01942333220476</v>
       </c>
       <c r="M18">
-        <v>1.022712884889486</v>
+        <v>1.024931031796999</v>
       </c>
       <c r="N18">
-        <v>1.015809726685625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009406928928769</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030108165790239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9871898874533972</v>
+        <v>0.9894245047899162</v>
       </c>
       <c r="D19">
-        <v>1.008599013465275</v>
+        <v>1.013431070964778</v>
       </c>
       <c r="E19">
-        <v>1.003883831215351</v>
+        <v>1.005957656839866</v>
       </c>
       <c r="F19">
-        <v>1.009410463763607</v>
+        <v>1.01159505648171</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039921076959638</v>
+        <v>1.041996833307546</v>
       </c>
       <c r="J19">
-        <v>1.014608221494928</v>
+        <v>1.016756079691695</v>
       </c>
       <c r="K19">
-        <v>1.022207193161016</v>
+        <v>1.026958602896247</v>
       </c>
       <c r="L19">
-        <v>1.017571674280348</v>
+        <v>1.019610343754504</v>
       </c>
       <c r="M19">
-        <v>1.023005030698603</v>
+        <v>1.025153114859916</v>
       </c>
       <c r="N19">
-        <v>1.016049081546641</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009461806859532</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.030207578932178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9854311902819788</v>
+        <v>0.9880487430184375</v>
       </c>
       <c r="D20">
-        <v>1.007338214321129</v>
+        <v>1.012563857198927</v>
       </c>
       <c r="E20">
-        <v>1.002419359576859</v>
+        <v>1.004826886368617</v>
       </c>
       <c r="F20">
-        <v>1.007786852530292</v>
+        <v>1.010306869867211</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039498801302579</v>
+        <v>1.041745118097707</v>
       </c>
       <c r="J20">
-        <v>1.013535501467729</v>
+        <v>1.016048268316835</v>
       </c>
       <c r="K20">
-        <v>1.021253245787885</v>
+        <v>1.026389326209441</v>
       </c>
       <c r="L20">
-        <v>1.01641980044866</v>
+        <v>1.018785388499077</v>
       </c>
       <c r="M20">
-        <v>1.021694147640852</v>
+        <v>1.024170874578723</v>
       </c>
       <c r="N20">
-        <v>1.01497483813396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009222109188474</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.029809018024642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9796036588113116</v>
+        <v>0.9835018355884554</v>
       </c>
       <c r="D21">
-        <v>1.003166147435526</v>
+        <v>1.009700104698513</v>
       </c>
       <c r="E21">
-        <v>0.9975777673630235</v>
+        <v>1.001098979886357</v>
       </c>
       <c r="F21">
-        <v>1.002418241197852</v>
+        <v>1.006059107383838</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038086334287236</v>
+        <v>1.040898736369435</v>
       </c>
       <c r="J21">
-        <v>1.009979606763482</v>
+        <v>1.013705908015625</v>
       </c>
       <c r="K21">
-        <v>1.018087783433884</v>
+        <v>1.024500006824787</v>
       </c>
       <c r="L21">
-        <v>1.012605175454429</v>
+        <v>1.016059561626416</v>
       </c>
       <c r="M21">
-        <v>1.017353943635251</v>
+        <v>1.02092659023382</v>
       </c>
       <c r="N21">
-        <v>1.011413893651366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008428243165986</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028476431076637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9758510916356137</v>
+        <v>0.980579812376841</v>
       </c>
       <c r="D22">
-        <v>1.000484455448102</v>
+        <v>1.007859030952378</v>
       </c>
       <c r="E22">
-        <v>0.9944689552538103</v>
+        <v>0.9987103014965182</v>
       </c>
       <c r="F22">
-        <v>0.9989702759482821</v>
+        <v>1.00333713029639</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037166892028914</v>
+        <v>1.040342152245884</v>
       </c>
       <c r="J22">
-        <v>1.007689053571818</v>
+        <v>1.012196691273756</v>
       </c>
       <c r="K22">
-        <v>1.016046321286692</v>
+        <v>1.023276390223566</v>
       </c>
       <c r="L22">
-        <v>1.010150785333062</v>
+        <v>1.014307350934593</v>
       </c>
       <c r="M22">
-        <v>1.014562159510235</v>
+        <v>1.018842766598928</v>
       </c>
       <c r="N22">
-        <v>1.00912008761144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007915831760256</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027597644521393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9778490873010859</v>
+        <v>0.9821261621210536</v>
       </c>
       <c r="D23">
-        <v>1.001911789974425</v>
+        <v>1.008826934094839</v>
       </c>
       <c r="E23">
-        <v>0.9961233330677524</v>
+        <v>0.999972887925047</v>
       </c>
       <c r="F23">
-        <v>1.000805211349663</v>
+        <v>1.004777063876676</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037657346701919</v>
+        <v>1.040634031636726</v>
       </c>
       <c r="J23">
-        <v>1.00890867703853</v>
+        <v>1.012991864084346</v>
       </c>
       <c r="K23">
-        <v>1.01713353301803</v>
+        <v>1.02391672384707</v>
       </c>
       <c r="L23">
-        <v>1.011457378379692</v>
+        <v>1.015232057980834</v>
       </c>
       <c r="M23">
-        <v>1.016048291627116</v>
+        <v>1.019943844009151</v>
       </c>
       <c r="N23">
-        <v>1.010341443083367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008185003640958</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028040675954095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.985527451721381</v>
+        <v>0.9881112122321483</v>
       </c>
       <c r="D24">
-        <v>1.00740720370938</v>
+        <v>1.012593703293081</v>
       </c>
       <c r="E24">
-        <v>1.002499476665161</v>
+        <v>1.004877043054022</v>
       </c>
       <c r="F24">
-        <v>1.007875678899535</v>
+        <v>1.010365674696917</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039521964372231</v>
+        <v>1.041750870520005</v>
       </c>
       <c r="J24">
-        <v>1.013594222126105</v>
+        <v>1.016074718882105</v>
       </c>
       <c r="K24">
-        <v>1.021305477338037</v>
+        <v>1.026403210870072</v>
       </c>
       <c r="L24">
-        <v>1.016482840412421</v>
+        <v>1.018819050266095</v>
       </c>
       <c r="M24">
-        <v>1.021765886128689</v>
+        <v>1.024213170344468</v>
       </c>
       <c r="N24">
-        <v>1.015033642182406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009229806880128</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.029791205476079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9940798421668041</v>
+        <v>0.9948309148908158</v>
       </c>
       <c r="D25">
-        <v>1.01354541638709</v>
+        <v>1.016842863586695</v>
       </c>
       <c r="E25">
-        <v>1.00963616661036</v>
+        <v>1.01041443955554</v>
       </c>
       <c r="F25">
-        <v>1.015786720600789</v>
+        <v>1.016670861721844</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041555554611956</v>
+        <v>1.042965171923152</v>
       </c>
       <c r="J25">
-        <v>1.018808099125863</v>
+        <v>1.019533500457796</v>
       </c>
       <c r="K25">
-        <v>1.025937034287843</v>
+        <v>1.029185223515618</v>
       </c>
       <c r="L25">
-        <v>1.022086712781526</v>
+        <v>1.022853207685405</v>
       </c>
       <c r="M25">
-        <v>1.028144813144151</v>
+        <v>1.029015781007544</v>
       </c>
       <c r="N25">
-        <v>1.020254923485544</v>
+        <v>1.010401632516153</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.031755376364065</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9999999640438142</v>
+        <v>1.000218608828211</v>
       </c>
       <c r="D2">
-        <v>1.020107911139852</v>
+        <v>1.020009655075235</v>
       </c>
       <c r="E2">
-        <v>1.014695545518621</v>
+        <v>1.01488346754891</v>
       </c>
       <c r="F2">
-        <v>1.021544772014046</v>
+        <v>1.021718010398193</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043855616152071</v>
+        <v>1.043829417761012</v>
       </c>
       <c r="J2">
-        <v>1.022180676186711</v>
+        <v>1.022392783308804</v>
       </c>
       <c r="K2">
-        <v>1.031294042119209</v>
+        <v>1.031197088180668</v>
       </c>
       <c r="L2">
-        <v>1.025953875192922</v>
+        <v>1.02613927420693</v>
       </c>
       <c r="M2">
-        <v>1.032711897067396</v>
+        <v>1.032882848488105</v>
       </c>
       <c r="N2">
-        <v>1.011296038443644</v>
+        <v>1.01313135693882</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033197795825634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033138076431369</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020421635351235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003675806599284</v>
+        <v>1.003764995691238</v>
       </c>
       <c r="D3">
-        <v>1.022446817465635</v>
+        <v>1.022183065247082</v>
       </c>
       <c r="E3">
-        <v>1.017753919950107</v>
+        <v>1.017828350110623</v>
       </c>
       <c r="F3">
-        <v>1.025022971669819</v>
+        <v>1.025081856019424</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044475000463007</v>
+        <v>1.044377618602566</v>
       </c>
       <c r="J3">
-        <v>1.024066764539175</v>
+        <v>1.02415354669917</v>
       </c>
       <c r="K3">
-        <v>1.032800322341805</v>
+        <v>1.032539764310774</v>
       </c>
       <c r="L3">
-        <v>1.028164565986357</v>
+        <v>1.028238084764875</v>
       </c>
       <c r="M3">
-        <v>1.035345385154224</v>
+        <v>1.035403561100732</v>
       </c>
       <c r="N3">
-        <v>1.011934253116452</v>
+        <v>1.013605290127665</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034260197836784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034084517075915</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02067991542091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00601481947983</v>
+        <v>1.006022519618249</v>
       </c>
       <c r="D4">
-        <v>1.023938486342544</v>
+        <v>1.023569976337829</v>
       </c>
       <c r="E4">
-        <v>1.019705805254932</v>
+        <v>1.019708709764023</v>
       </c>
       <c r="F4">
-        <v>1.027241867569865</v>
+        <v>1.027228735180649</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044859921066512</v>
+        <v>1.044717430859653</v>
       </c>
       <c r="J4">
-        <v>1.025265907025585</v>
+        <v>1.025273413361651</v>
       </c>
       <c r="K4">
-        <v>1.033756331038743</v>
+        <v>1.033392017577691</v>
       </c>
       <c r="L4">
-        <v>1.029572076681943</v>
+        <v>1.029574947789923</v>
       </c>
       <c r="M4">
-        <v>1.037022259506655</v>
+        <v>1.037009275420894</v>
       </c>
       <c r="N4">
-        <v>1.012339914350279</v>
+        <v>1.013906674710449</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03493708928878</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034688124882188</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020841490399419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00699161021761</v>
+        <v>1.006965484727303</v>
       </c>
       <c r="D5">
-        <v>1.024564268943085</v>
+        <v>1.024152187726431</v>
       </c>
       <c r="E5">
-        <v>1.020522478014069</v>
+        <v>1.020495674598009</v>
       </c>
       <c r="F5">
-        <v>1.028169715591414</v>
+        <v>1.028126683631294</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045019701335216</v>
+        <v>1.044858432681249</v>
       </c>
       <c r="J5">
-        <v>1.025767637239397</v>
+        <v>1.025742149727372</v>
       </c>
       <c r="K5">
-        <v>1.034157594370051</v>
+        <v>1.033750082193294</v>
       </c>
       <c r="L5">
-        <v>1.03016081386174</v>
+        <v>1.030134310400248</v>
       </c>
       <c r="M5">
-        <v>1.03772325676016</v>
+        <v>1.037680697614394</v>
       </c>
       <c r="N5">
-        <v>1.012509837511915</v>
+        <v>1.014032986168858</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035228036818079</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034949237094094</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020909190725492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007158308109579</v>
+        <v>1.007126424728398</v>
       </c>
       <c r="D6">
-        <v>1.024673634551231</v>
+        <v>1.024254183108232</v>
       </c>
       <c r="E6">
-        <v>1.020662161400093</v>
+        <v>1.020630299863479</v>
       </c>
       <c r="F6">
-        <v>1.028328004317157</v>
+        <v>1.02827988362343</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04504839304258</v>
+        <v>1.044883940606517</v>
       </c>
       <c r="J6">
-        <v>1.025854734712531</v>
+        <v>1.025823625928898</v>
       </c>
       <c r="K6">
-        <v>1.034229252843988</v>
+        <v>1.033814431062113</v>
       </c>
       <c r="L6">
-        <v>1.030262247694536</v>
+        <v>1.030230741071005</v>
       </c>
       <c r="M6">
-        <v>1.037843484018036</v>
+        <v>1.037795889592674</v>
       </c>
       <c r="N6">
-        <v>1.012539599971318</v>
+        <v>1.014055153088228</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035287506659252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035004406529598</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020921799803614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006036559521734</v>
+        <v>1.006051031129865</v>
       </c>
       <c r="D7">
-        <v>1.023959164836393</v>
+        <v>1.023595022857862</v>
       </c>
       <c r="E7">
-        <v>1.019724603373491</v>
+        <v>1.019733563498247</v>
       </c>
       <c r="F7">
-        <v>1.027262154849482</v>
+        <v>1.027255022253001</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044867656777278</v>
+        <v>1.044727298135344</v>
       </c>
       <c r="J7">
-        <v>1.02528106525437</v>
+        <v>1.025295172788845</v>
       </c>
       <c r="K7">
-        <v>1.033773866790621</v>
+        <v>1.033413869999883</v>
       </c>
       <c r="L7">
-        <v>1.029587735073676</v>
+        <v>1.029596592199189</v>
       </c>
       <c r="M7">
-        <v>1.037039422824424</v>
+        <v>1.037032370744645</v>
       </c>
       <c r="N7">
-        <v>1.012345774034897</v>
+        <v>1.01393895607226</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034969731224847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034725816529108</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020847416920339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001261358278337</v>
+        <v>1.001458558955646</v>
       </c>
       <c r="D8">
-        <v>1.020918114212838</v>
+        <v>1.020779187320537</v>
       </c>
       <c r="E8">
-        <v>1.015744659638465</v>
+        <v>1.015914209423909</v>
       </c>
       <c r="F8">
-        <v>1.022736740864963</v>
+        <v>1.022891172046923</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044075167980168</v>
+        <v>1.044032312892195</v>
       </c>
       <c r="J8">
-        <v>1.022833034379358</v>
+        <v>1.023024535956129</v>
       </c>
       <c r="K8">
-        <v>1.03182199944403</v>
+        <v>1.031684859480382</v>
       </c>
       <c r="L8">
-        <v>1.026715500721751</v>
+        <v>1.026882842627287</v>
       </c>
       <c r="M8">
-        <v>1.033617290214245</v>
+        <v>1.033769744574908</v>
       </c>
       <c r="N8">
-        <v>1.011517755594822</v>
+        <v>1.013380729914558</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033594178190861</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033508308037794</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020519057269873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9925172747675853</v>
+        <v>0.9930315297035658</v>
       </c>
       <c r="D9">
-        <v>1.01536749558397</v>
+        <v>1.015628001227235</v>
       </c>
       <c r="E9">
-        <v>1.008502916939358</v>
+        <v>1.008949918774346</v>
       </c>
       <c r="F9">
-        <v>1.014496609317912</v>
+        <v>1.014930998678248</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042546171268069</v>
+        <v>1.042674986294798</v>
       </c>
       <c r="J9">
-        <v>1.018337062873346</v>
+        <v>1.018832785385372</v>
       </c>
       <c r="K9">
-        <v>1.028216070854306</v>
+        <v>1.028472513302717</v>
       </c>
       <c r="L9">
-        <v>1.021459530317056</v>
+        <v>1.021899439704404</v>
       </c>
       <c r="M9">
-        <v>1.027358787468184</v>
+        <v>1.027786388116978</v>
       </c>
       <c r="N9">
-        <v>1.009995078269103</v>
+        <v>1.012261144314438</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031041313006472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031233461367595</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019886675872254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9864590697078723</v>
+        <v>0.9872331481070173</v>
       </c>
       <c r="D10">
-        <v>1.011546471504341</v>
+        <v>1.012111217872486</v>
       </c>
       <c r="E10">
-        <v>1.003519984150094</v>
+        <v>1.004194381508798</v>
       </c>
       <c r="F10">
-        <v>1.008820642512491</v>
+        <v>1.009484638390208</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041442240258183</v>
+        <v>1.041702804588365</v>
       </c>
       <c r="J10">
-        <v>1.015220425824066</v>
+        <v>1.01596261663051</v>
       </c>
       <c r="K10">
-        <v>1.025710334049802</v>
+        <v>1.026265190275544</v>
       </c>
       <c r="L10">
-        <v>1.017825973712252</v>
+        <v>1.018488315824722</v>
       </c>
       <c r="M10">
-        <v>1.02303244314276</v>
+        <v>1.02368473066492</v>
       </c>
       <c r="N10">
-        <v>1.008939540492104</v>
+        <v>1.011605307954863</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029286519523331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029691349504345</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019442585805022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9837872156197069</v>
+        <v>0.984732770031904</v>
       </c>
       <c r="D11">
-        <v>1.009875265593646</v>
+        <v>1.010614373521038</v>
       </c>
       <c r="E11">
-        <v>1.001331970533554</v>
+        <v>1.002157624723383</v>
       </c>
       <c r="F11">
-        <v>1.006325422964492</v>
+        <v>1.007141921556414</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040949815861369</v>
+        <v>1.04128784653079</v>
       </c>
       <c r="J11">
-        <v>1.013850373003061</v>
+        <v>1.014754771176339</v>
       </c>
       <c r="K11">
-        <v>1.024613321235415</v>
+        <v>1.025338856468492</v>
       </c>
       <c r="L11">
-        <v>1.016228811480782</v>
+        <v>1.017038965789004</v>
       </c>
       <c r="M11">
-        <v>1.021129028881156</v>
+        <v>1.021930396917266</v>
       </c>
       <c r="N11">
-        <v>1.008476619440396</v>
+        <v>1.01150992509671</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028543993373826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029072718950396</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019258419040853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.982779404130383</v>
+        <v>0.9837951197518701</v>
       </c>
       <c r="D12">
-        <v>1.009241360717991</v>
+        <v>1.010050133442902</v>
       </c>
       <c r="E12">
-        <v>1.000507440234994</v>
+        <v>1.001395115679649</v>
       </c>
       <c r="F12">
-        <v>1.005385686690521</v>
+        <v>1.006264760860109</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040759864839882</v>
+        <v>1.041129060097423</v>
       </c>
       <c r="J12">
-        <v>1.013330884385129</v>
+        <v>1.014301493314249</v>
       </c>
       <c r="K12">
-        <v>1.024193626958024</v>
+        <v>1.024987288862294</v>
       </c>
       <c r="L12">
-        <v>1.015624924943887</v>
+        <v>1.016495636195279</v>
       </c>
       <c r="M12">
-        <v>1.020410427741805</v>
+        <v>1.021272914161119</v>
       </c>
       <c r="N12">
-        <v>1.008300483065714</v>
+        <v>1.011489936486612</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028247251011601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028824150783651</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01918768542128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9829948237247585</v>
+        <v>0.9839952992809846</v>
       </c>
       <c r="D13">
-        <v>1.009375939851133</v>
+        <v>1.010169628220591</v>
       </c>
       <c r="E13">
-        <v>1.000683509691544</v>
+        <v>1.001557709194701</v>
       </c>
       <c r="F13">
-        <v>1.005586523596013</v>
+        <v>1.006451997640956</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040800012964533</v>
+        <v>1.041162459881484</v>
       </c>
       <c r="J13">
-        <v>1.013441400977069</v>
+        <v>1.014397636659987</v>
       </c>
       <c r="K13">
-        <v>1.02428225117926</v>
+        <v>1.025061165110821</v>
       </c>
       <c r="L13">
-        <v>1.015753636499237</v>
+        <v>1.01661119285068</v>
       </c>
       <c r="M13">
-        <v>1.020563794528868</v>
+        <v>1.021413000448816</v>
       </c>
       <c r="N13">
-        <v>1.008337834026047</v>
+        <v>1.011493155516098</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.028307396936706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028873626103076</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019202396252149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9837035952509622</v>
+        <v>0.9846548590493637</v>
       </c>
       <c r="D14">
-        <v>1.009822275496986</v>
+        <v>1.010567075172691</v>
       </c>
       <c r="E14">
-        <v>1.001263481892918</v>
+        <v>1.002094181207108</v>
       </c>
       <c r="F14">
-        <v>1.006247436125465</v>
+        <v>1.007069023374253</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040933862835779</v>
+        <v>1.041274439217424</v>
       </c>
       <c r="J14">
-        <v>1.013807045962816</v>
+        <v>1.014716835857886</v>
       </c>
       <c r="K14">
-        <v>1.024578034338885</v>
+        <v>1.025309137126876</v>
       </c>
       <c r="L14">
-        <v>1.016178547704324</v>
+        <v>1.016993629277113</v>
       </c>
       <c r="M14">
-        <v>1.021069304477918</v>
+        <v>1.021875643945404</v>
       </c>
       <c r="N14">
-        <v>1.008461877866443</v>
+        <v>1.011507790285016</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.028517966458295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.029050525329454</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019252374299034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9841413980849396</v>
+        <v>0.9850629896979582</v>
       </c>
       <c r="D15">
-        <v>1.01009984167611</v>
+        <v>1.010815003820549</v>
       </c>
       <c r="E15">
-        <v>1.001622127469957</v>
+        <v>1.002426611963995</v>
       </c>
       <c r="F15">
-        <v>1.006655794515472</v>
+        <v>1.007450942973813</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041017378728578</v>
+        <v>1.041344706004898</v>
       </c>
       <c r="J15">
-        <v>1.014033942762819</v>
+        <v>1.014915704548697</v>
       </c>
       <c r="K15">
-        <v>1.024762886861207</v>
+        <v>1.025464996011779</v>
       </c>
       <c r="L15">
-        <v>1.016441759664015</v>
+        <v>1.017231236573645</v>
       </c>
       <c r="M15">
-        <v>1.021382038206371</v>
+        <v>1.022162545652006</v>
       </c>
       <c r="N15">
-        <v>1.008539088762717</v>
+        <v>1.011519690387021</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.028654589906701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.029167216459533</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019284089038443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9866554394662936</v>
+        <v>0.9874180727947044</v>
       </c>
       <c r="D16">
-        <v>1.011684585503817</v>
+        <v>1.012237617303682</v>
       </c>
       <c r="E16">
-        <v>1.003682874855819</v>
+        <v>1.004347173115689</v>
       </c>
       <c r="F16">
-        <v>1.009003705013034</v>
+        <v>1.009657532779043</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041487273762871</v>
+        <v>1.041742560357668</v>
       </c>
       <c r="J16">
-        <v>1.015330183121044</v>
+        <v>1.016061518471585</v>
       </c>
       <c r="K16">
-        <v>1.025809960268901</v>
+        <v>1.026353338725787</v>
       </c>
       <c r="L16">
-        <v>1.017949467469114</v>
+        <v>1.018601930719207</v>
       </c>
       <c r="M16">
-        <v>1.023176069787638</v>
+        <v>1.023818407556878</v>
       </c>
       <c r="N16">
-        <v>1.008978662073873</v>
+        <v>1.011620938838604</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029398115467279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029798807408748</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019462849044986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9882160708860642</v>
+        <v>0.9888914390649649</v>
       </c>
       <c r="D17">
-        <v>1.01266992175043</v>
+        <v>1.013130419142958</v>
       </c>
       <c r="E17">
-        <v>1.004964420230272</v>
+        <v>1.005551948248494</v>
       </c>
       <c r="F17">
-        <v>1.010463450867453</v>
+        <v>1.011039910041021</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041776209881135</v>
+        <v>1.041990712398465</v>
       </c>
       <c r="J17">
-        <v>1.01613474307641</v>
+        <v>1.016783299173109</v>
       </c>
       <c r="K17">
-        <v>1.026459389329281</v>
+        <v>1.026912075826927</v>
       </c>
       <c r="L17">
-        <v>1.018885961505217</v>
+        <v>1.019463326975047</v>
       </c>
       <c r="M17">
-        <v>1.024290471902685</v>
+        <v>1.024857099489945</v>
       </c>
       <c r="N17">
-        <v>1.009251478805022</v>
+        <v>1.011721004232976</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029859902820916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030196715519086</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019575267909527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9891143499909664</v>
+        <v>0.9897439109075048</v>
       </c>
       <c r="D18">
-        <v>1.01323295829824</v>
+        <v>1.013643217261164</v>
       </c>
       <c r="E18">
-        <v>1.005702307391704</v>
+        <v>1.006249610483227</v>
       </c>
       <c r="F18">
-        <v>1.011304618890198</v>
+        <v>1.011840530116108</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04193871986125</v>
+        <v>1.042131239163302</v>
       </c>
       <c r="J18">
-        <v>1.016595007078972</v>
+        <v>1.017200059783264</v>
       </c>
       <c r="K18">
-        <v>1.026827117222718</v>
+        <v>1.027230534465884</v>
       </c>
       <c r="L18">
-        <v>1.01942333220476</v>
+        <v>1.019961332491325</v>
       </c>
       <c r="M18">
-        <v>1.024931031796999</v>
+        <v>1.025457963312534</v>
       </c>
       <c r="N18">
-        <v>1.009406928928769</v>
+        <v>1.01179180723645</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030108165790239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030409006674666</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019638522731499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9894245047899162</v>
+        <v>0.9900390445024234</v>
       </c>
       <c r="D19">
-        <v>1.013431070964778</v>
+        <v>1.013824606631365</v>
       </c>
       <c r="E19">
-        <v>1.005957656839866</v>
+        <v>1.006491777932135</v>
       </c>
       <c r="F19">
-        <v>1.01159505648171</v>
+        <v>1.012117679584857</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041996833307546</v>
+        <v>1.042182037610252</v>
       </c>
       <c r="J19">
-        <v>1.016756079691695</v>
+        <v>1.017346856815943</v>
       </c>
       <c r="K19">
-        <v>1.026958602896247</v>
+        <v>1.027345613976286</v>
       </c>
       <c r="L19">
-        <v>1.019610343754504</v>
+        <v>1.020135440524512</v>
       </c>
       <c r="M19">
-        <v>1.025153114859916</v>
+        <v>1.025667034060648</v>
       </c>
       <c r="N19">
-        <v>1.009461806859532</v>
+        <v>1.011820052044421</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.030207578932178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.030497440580073</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01966203687126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9880487430184375</v>
+        <v>0.9887330075091258</v>
       </c>
       <c r="D20">
-        <v>1.012563857198927</v>
+        <v>1.013033945375556</v>
       </c>
       <c r="E20">
-        <v>1.004826886368617</v>
+        <v>1.005422233856393</v>
       </c>
       <c r="F20">
-        <v>1.010306869867211</v>
+        <v>1.010891209571388</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041745118097707</v>
+        <v>1.041963836232681</v>
       </c>
       <c r="J20">
-        <v>1.016048268316835</v>
+        <v>1.016705269861448</v>
       </c>
       <c r="K20">
-        <v>1.026389326209441</v>
+        <v>1.026851416019191</v>
       </c>
       <c r="L20">
-        <v>1.018785388499077</v>
+        <v>1.019370405209098</v>
       </c>
       <c r="M20">
-        <v>1.024170874578723</v>
+        <v>1.02474521596484</v>
       </c>
       <c r="N20">
-        <v>1.009222109188474</v>
+        <v>1.011708639318182</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029809018024642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030152350372266</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019562998547651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9835018355884554</v>
+        <v>0.9844860769328465</v>
       </c>
       <c r="D21">
-        <v>1.009700104698513</v>
+        <v>1.010472368725627</v>
       </c>
       <c r="E21">
-        <v>1.001098979886357</v>
+        <v>1.00195916394052</v>
       </c>
       <c r="F21">
-        <v>1.006059107383838</v>
+        <v>1.006910331602078</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040898736369435</v>
+        <v>1.041252102129784</v>
       </c>
       <c r="J21">
-        <v>1.013705908015625</v>
+        <v>1.014647060393163</v>
       </c>
       <c r="K21">
-        <v>1.024500006824787</v>
+        <v>1.02525801840759</v>
       </c>
       <c r="L21">
-        <v>1.016059561626416</v>
+        <v>1.016903514180467</v>
       </c>
       <c r="M21">
-        <v>1.02092659023382</v>
+        <v>1.021761957731375</v>
       </c>
       <c r="N21">
-        <v>1.008428243165986</v>
+        <v>1.011571449442489</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028476431076637</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029029326155343</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019244188965634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.980579812376841</v>
+        <v>0.9817567429125347</v>
       </c>
       <c r="D22">
-        <v>1.007859030952378</v>
+        <v>1.00882592014412</v>
       </c>
       <c r="E22">
-        <v>0.9987103014965182</v>
+        <v>0.9997407566292107</v>
       </c>
       <c r="F22">
-        <v>1.00333713029639</v>
+        <v>1.004360410123949</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040342152245884</v>
+        <v>1.040782394845152</v>
       </c>
       <c r="J22">
-        <v>1.012196691273756</v>
+        <v>1.013319071826666</v>
       </c>
       <c r="K22">
-        <v>1.023276390223566</v>
+        <v>1.024224538282279</v>
       </c>
       <c r="L22">
-        <v>1.014307350934593</v>
+        <v>1.015317350931335</v>
       </c>
       <c r="M22">
-        <v>1.018842766598928</v>
+        <v>1.019845978532308</v>
       </c>
       <c r="N22">
-        <v>1.007915831760256</v>
+        <v>1.011470885242766</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027597644521393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028283681733428</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019033971560577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9821261621210536</v>
+        <v>0.9831886048319565</v>
       </c>
       <c r="D23">
-        <v>1.008826934094839</v>
+        <v>1.009681731289844</v>
       </c>
       <c r="E23">
-        <v>0.999972887925047</v>
+        <v>1.000901917808759</v>
       </c>
       <c r="F23">
-        <v>1.004777063876676</v>
+        <v>1.005697878622744</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040634031636726</v>
+        <v>1.041023897638577</v>
       </c>
       <c r="J23">
-        <v>1.012991864084346</v>
+        <v>1.014006518896076</v>
       </c>
       <c r="K23">
-        <v>1.02391672384707</v>
+        <v>1.024755373994634</v>
       </c>
       <c r="L23">
-        <v>1.015232057980834</v>
+        <v>1.016143130911303</v>
       </c>
       <c r="M23">
-        <v>1.019943844009151</v>
+        <v>1.020847082282114</v>
       </c>
       <c r="N23">
-        <v>1.008185003640958</v>
+        <v>1.011479555926621</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028040675954095</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028648349785725</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019140328357133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9881112122321483</v>
+        <v>0.9887920835448596</v>
       </c>
       <c r="D24">
-        <v>1.012593703293081</v>
+        <v>1.01305998136966</v>
       </c>
       <c r="E24">
-        <v>1.004877043054022</v>
+        <v>1.005469418845971</v>
       </c>
       <c r="F24">
-        <v>1.010365674696917</v>
+        <v>1.010947013114266</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041750870520005</v>
+        <v>1.041967973814703</v>
       </c>
       <c r="J24">
-        <v>1.016074718882105</v>
+        <v>1.016728505385108</v>
       </c>
       <c r="K24">
-        <v>1.026403210870072</v>
+        <v>1.026861566163042</v>
       </c>
       <c r="L24">
-        <v>1.018819050266095</v>
+        <v>1.019401161367687</v>
       </c>
       <c r="M24">
-        <v>1.024213170344468</v>
+        <v>1.024784576038643</v>
       </c>
       <c r="N24">
-        <v>1.009229806880128</v>
+        <v>1.011709932445589</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029791205476079</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030129228205628</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019563334144833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9948309148908158</v>
+        <v>0.9952510359865232</v>
       </c>
       <c r="D25">
-        <v>1.016842863586695</v>
+        <v>1.016990852788706</v>
       </c>
       <c r="E25">
-        <v>1.01041443955554</v>
+        <v>1.010778977126663</v>
       </c>
       <c r="F25">
-        <v>1.016670861721844</v>
+        <v>1.017022086181474</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042965171923152</v>
+        <v>1.043045278295833</v>
       </c>
       <c r="J25">
-        <v>1.019533500457796</v>
+        <v>1.019939285530577</v>
       </c>
       <c r="K25">
-        <v>1.029185223515618</v>
+        <v>1.029331011545878</v>
       </c>
       <c r="L25">
-        <v>1.022853207685405</v>
+        <v>1.023212236449476</v>
       </c>
       <c r="M25">
-        <v>1.029015781007544</v>
+        <v>1.029361780481393</v>
       </c>
       <c r="N25">
-        <v>1.010401632516153</v>
+        <v>1.012527313895215</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031755376364065</v>
+        <v>1.031872083055849</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020059106412597</v>
       </c>
     </row>
   </sheetData>
